--- a/pred_ohlcv/54_21/2019-10-21 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2169.687396958175</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2159.318196958175</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2588.401596958174</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2719.462296958174</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4115.159096958173</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4593.12631213427</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>4505.95011213427</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4500.76871213427</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4431.79129124998</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4222.010191249979</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3734.015491249979</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3734.015491249979</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3478.399091249979</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5256.092191249979</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5005.950426644839</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4867.75042664484</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4869.787426644839</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>6190.050926644839</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6607.593426644838</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6657.260426644839</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>6422.886626644839</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>6720.386626644839</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2169.687396958175</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2159.318196958175</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2197.058196958174</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2588.401596958174</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2719.462296958174</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2769.752596958174</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4336.777696958173</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4331.654496958173</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4141.840296958173</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4115.833496958173</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4115.159096958173</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4616.165896958173</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4595.965896958173</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5500.681075683571</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4593.12631213427</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4530.25511213427</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4515.97011213427</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>4505.95011213427</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1556.95311213427</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1568.42491213427</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3534.928091249979</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3478.399091249979</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3504.476891249979</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3604.476891249979</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1264.734891249979</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4951.162891249979</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5256.092191249979</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4334.704291249979</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4417.985491249979</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4382.813891249979</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4400.313891249979</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4215.446891249979</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4215.869726644841</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5005.950426644839</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4867.75042664484</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4769.150426644839</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4869.787426644839</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>6190.050926644839</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6607.593426644838</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6657.260426644839</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>6282.176426644839</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>6422.886626644839</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>6720.386626644839</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
